--- a/TestData/ShipperContact.xlsx
+++ b/TestData/ShipperContact.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -105,31 +105,31 @@
     <t>AutomationTest</t>
   </si>
   <si>
-    <t>AutomationTest_1014043816</t>
-  </si>
-  <si>
     <t>Name;Email;Phone;Status;</t>
   </si>
   <si>
     <t>automationtest11@gmail.com</t>
   </si>
   <si>
-    <t>AutomationTest_1014052404</t>
-  </si>
-  <si>
-    <t>AutomationTest_1014052553</t>
-  </si>
-  <si>
-    <t>AutomationTest_1014052810</t>
-  </si>
-  <si>
-    <t>AutomationTest_1014053731</t>
-  </si>
-  <si>
-    <t>AutomationTest_1014055224</t>
-  </si>
-  <si>
-    <t>AutomationTest_1014060112</t>
+    <t>AutomationTest_1015094619</t>
+  </si>
+  <si>
+    <t>VERIFY</t>
+  </si>
+  <si>
+    <t>AutomationTest_1015100430</t>
+  </si>
+  <si>
+    <t>AutomationTest_1015100840</t>
+  </si>
+  <si>
+    <t>AutomationTest_1015101850</t>
+  </si>
+  <si>
+    <t>AutomationTest_1015102117</t>
+  </si>
+  <si>
+    <t>AutomationTest_1015102405</t>
   </si>
 </sst>
 </file>
@@ -268,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,7 +303,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -628,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +702,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>27</v>
@@ -730,7 +730,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>27</v>
@@ -758,7 +758,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>27</v>
@@ -777,6 +777,32 @@
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/ShipperContact.xlsx
+++ b/TestData/ShipperContact.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="44">
   <si>
     <t>Automation Test ID</t>
   </si>
@@ -111,25 +111,43 @@
     <t>automationtest11@gmail.com</t>
   </si>
   <si>
-    <t>AutomationTest_1015094619</t>
-  </si>
-  <si>
     <t>VERIFY</t>
   </si>
   <si>
-    <t>AutomationTest_1015100430</t>
-  </si>
-  <si>
-    <t>AutomationTest_1015100840</t>
-  </si>
-  <si>
-    <t>AutomationTest_1015101850</t>
-  </si>
-  <si>
-    <t>AutomationTest_1015102117</t>
-  </si>
-  <si>
-    <t>AutomationTest_1015102405</t>
+    <t>AutomationTest_0412055646</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_ShipperContacts_TC001</t>
+  </si>
+  <si>
+    <t>Name is required</t>
+  </si>
+  <si>
+    <t>Invalid_ShipperContacts_TC001</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_InactiveShipperContacts_TC002</t>
+  </si>
+  <si>
+    <t>Scoular</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>GlobalAdmin_activeShipperContacts_TC003</t>
+  </si>
+  <si>
+    <t>AutomationTest_0513121412</t>
+  </si>
+  <si>
+    <t>AutomationTest_0513041334</t>
+  </si>
+  <si>
+    <t>AutomationTest_0513043801</t>
+  </si>
+  <si>
+    <t>AutomationTest_0513044929</t>
   </si>
 </sst>
 </file>
@@ -198,15 +216,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -268,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,7 +326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,15 +535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="40.42578125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
@@ -545,58 +568,103 @@
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="48.7109375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="32.0" collapsed="true"/>
@@ -616,26 +684,92 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -644,15 +778,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.28515625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="26.28515625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="13.5703125" collapsed="true"/>
@@ -663,146 +797,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
